--- a/po_analysis_by_asin/B0CSTCZMQ5_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSTCZMQ5_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45320</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>33</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>105</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>60</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>30</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>555</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>90</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>200</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>40</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>60</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>230</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>70</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>60</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>110</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>60</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>240</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>100</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>180</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>280</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>33</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>750</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>90</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>250</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>80</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>300</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>230</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>340</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>460</v>

--- a/po_analysis_by_asin/B0CSTCZMQ5_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSTCZMQ5_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -637,7 +638,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -711,6 +712,439 @@
       </c>
       <c r="B10" t="n">
         <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>101</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-58.46367770764414</v>
+      </c>
+      <c r="D2" t="n">
+        <v>252.9470271628639</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>103</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-54.64889421576903</v>
+      </c>
+      <c r="D3" t="n">
+        <v>260.1183707012801</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>104</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-62.07066709357423</v>
+      </c>
+      <c r="D4" t="n">
+        <v>271.859322475959</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>106</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-50.16088347773848</v>
+      </c>
+      <c r="D5" t="n">
+        <v>260.6958672432984</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>107</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-46.98833755874391</v>
+      </c>
+      <c r="D6" t="n">
+        <v>268.7908030081875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>109</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-40.91224169164256</v>
+      </c>
+      <c r="D7" t="n">
+        <v>278.5060804850536</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>115</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-44.45712413095261</v>
+      </c>
+      <c r="D8" t="n">
+        <v>268.3528298145038</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>118</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-39.43373013867677</v>
+      </c>
+      <c r="D9" t="n">
+        <v>275.7905101307344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>120</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-24.47402809039234</v>
+      </c>
+      <c r="D10" t="n">
+        <v>260.315222805417</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>126</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-40.5319565857095</v>
+      </c>
+      <c r="D11" t="n">
+        <v>269.3882011156416</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>127</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-19.46717360773469</v>
+      </c>
+      <c r="D12" t="n">
+        <v>287.6671198893139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>131</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-21.48420390330126</v>
+      </c>
+      <c r="D13" t="n">
+        <v>291.2164494865131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>132</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-27.82490861685601</v>
+      </c>
+      <c r="D14" t="n">
+        <v>305.0952384223734</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>135</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-21.00064048459169</v>
+      </c>
+      <c r="D15" t="n">
+        <v>289.0524091564366</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>137</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-22.73263107674547</v>
+      </c>
+      <c r="D16" t="n">
+        <v>287.8666077893428</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>138</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-14.77216829951316</v>
+      </c>
+      <c r="D17" t="n">
+        <v>293.3567904129159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>146</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-8.505954132131022</v>
+      </c>
+      <c r="D18" t="n">
+        <v>305.3349266477819</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>148</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-20.3997264590604</v>
+      </c>
+      <c r="D19" t="n">
+        <v>308.3281588595934</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>160</v>
+      </c>
+      <c r="C20" t="n">
+        <v>15.71553427399225</v>
+      </c>
+      <c r="D20" t="n">
+        <v>314.4844804721021</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>162</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.875667419936374</v>
+      </c>
+      <c r="D21" t="n">
+        <v>320.0006933128539</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>163</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-7.725630890688103</v>
+      </c>
+      <c r="D22" t="n">
+        <v>313.6571866889266</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>165</v>
+      </c>
+      <c r="C23" t="n">
+        <v>13.32435807602847</v>
+      </c>
+      <c r="D23" t="n">
+        <v>329.681511572149</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>166</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11.49240745804185</v>
+      </c>
+      <c r="D24" t="n">
+        <v>326.3039817421561</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>168</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11.53418722209557</v>
+      </c>
+      <c r="D25" t="n">
+        <v>332.0910570627722</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>169</v>
+      </c>
+      <c r="C26" t="n">
+        <v>20.2957998468843</v>
+      </c>
+      <c r="D26" t="n">
+        <v>334.6192612800819</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>171</v>
+      </c>
+      <c r="C27" t="n">
+        <v>22.74550342538376</v>
+      </c>
+      <c r="D27" t="n">
+        <v>328.4985503874146</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>172</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.37393411196109</v>
+      </c>
+      <c r="D28" t="n">
+        <v>325.0916070054402</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>174</v>
+      </c>
+      <c r="C29" t="n">
+        <v>26.79729575460284</v>
+      </c>
+      <c r="D29" t="n">
+        <v>333.5302081609477</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSTCZMQ5_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSTCZMQ5_po_data.xlsx
@@ -725,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,16 +744,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -762,12 +752,6 @@
       <c r="B2" t="n">
         <v>101</v>
       </c>
-      <c r="C2" t="n">
-        <v>-58.46367770764414</v>
-      </c>
-      <c r="D2" t="n">
-        <v>252.9470271628639</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -776,12 +760,6 @@
       <c r="B3" t="n">
         <v>103</v>
       </c>
-      <c r="C3" t="n">
-        <v>-54.64889421576903</v>
-      </c>
-      <c r="D3" t="n">
-        <v>260.1183707012801</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -790,12 +768,6 @@
       <c r="B4" t="n">
         <v>104</v>
       </c>
-      <c r="C4" t="n">
-        <v>-62.07066709357423</v>
-      </c>
-      <c r="D4" t="n">
-        <v>271.859322475959</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -804,12 +776,6 @@
       <c r="B5" t="n">
         <v>106</v>
       </c>
-      <c r="C5" t="n">
-        <v>-50.16088347773848</v>
-      </c>
-      <c r="D5" t="n">
-        <v>260.6958672432984</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -818,12 +784,6 @@
       <c r="B6" t="n">
         <v>107</v>
       </c>
-      <c r="C6" t="n">
-        <v>-46.98833755874391</v>
-      </c>
-      <c r="D6" t="n">
-        <v>268.7908030081875</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -832,12 +792,6 @@
       <c r="B7" t="n">
         <v>109</v>
       </c>
-      <c r="C7" t="n">
-        <v>-40.91224169164256</v>
-      </c>
-      <c r="D7" t="n">
-        <v>278.5060804850536</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -846,12 +800,6 @@
       <c r="B8" t="n">
         <v>115</v>
       </c>
-      <c r="C8" t="n">
-        <v>-44.45712413095261</v>
-      </c>
-      <c r="D8" t="n">
-        <v>268.3528298145038</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -860,12 +808,6 @@
       <c r="B9" t="n">
         <v>118</v>
       </c>
-      <c r="C9" t="n">
-        <v>-39.43373013867677</v>
-      </c>
-      <c r="D9" t="n">
-        <v>275.7905101307344</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -874,12 +816,6 @@
       <c r="B10" t="n">
         <v>120</v>
       </c>
-      <c r="C10" t="n">
-        <v>-24.47402809039234</v>
-      </c>
-      <c r="D10" t="n">
-        <v>260.315222805417</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -888,12 +824,6 @@
       <c r="B11" t="n">
         <v>126</v>
       </c>
-      <c r="C11" t="n">
-        <v>-40.5319565857095</v>
-      </c>
-      <c r="D11" t="n">
-        <v>269.3882011156416</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -902,12 +832,6 @@
       <c r="B12" t="n">
         <v>127</v>
       </c>
-      <c r="C12" t="n">
-        <v>-19.46717360773469</v>
-      </c>
-      <c r="D12" t="n">
-        <v>287.6671198893139</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -916,12 +840,6 @@
       <c r="B13" t="n">
         <v>131</v>
       </c>
-      <c r="C13" t="n">
-        <v>-21.48420390330126</v>
-      </c>
-      <c r="D13" t="n">
-        <v>291.2164494865131</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -930,12 +848,6 @@
       <c r="B14" t="n">
         <v>132</v>
       </c>
-      <c r="C14" t="n">
-        <v>-27.82490861685601</v>
-      </c>
-      <c r="D14" t="n">
-        <v>305.0952384223734</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -944,12 +856,6 @@
       <c r="B15" t="n">
         <v>135</v>
       </c>
-      <c r="C15" t="n">
-        <v>-21.00064048459169</v>
-      </c>
-      <c r="D15" t="n">
-        <v>289.0524091564366</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -958,12 +864,6 @@
       <c r="B16" t="n">
         <v>137</v>
       </c>
-      <c r="C16" t="n">
-        <v>-22.73263107674547</v>
-      </c>
-      <c r="D16" t="n">
-        <v>287.8666077893428</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -972,12 +872,6 @@
       <c r="B17" t="n">
         <v>138</v>
       </c>
-      <c r="C17" t="n">
-        <v>-14.77216829951316</v>
-      </c>
-      <c r="D17" t="n">
-        <v>293.3567904129159</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -986,12 +880,6 @@
       <c r="B18" t="n">
         <v>146</v>
       </c>
-      <c r="C18" t="n">
-        <v>-8.505954132131022</v>
-      </c>
-      <c r="D18" t="n">
-        <v>305.3349266477819</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1000,12 +888,6 @@
       <c r="B19" t="n">
         <v>148</v>
       </c>
-      <c r="C19" t="n">
-        <v>-20.3997264590604</v>
-      </c>
-      <c r="D19" t="n">
-        <v>308.3281588595934</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1014,12 +896,6 @@
       <c r="B20" t="n">
         <v>160</v>
       </c>
-      <c r="C20" t="n">
-        <v>15.71553427399225</v>
-      </c>
-      <c r="D20" t="n">
-        <v>314.4844804721021</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1028,12 +904,6 @@
       <c r="B21" t="n">
         <v>162</v>
       </c>
-      <c r="C21" t="n">
-        <v>7.875667419936374</v>
-      </c>
-      <c r="D21" t="n">
-        <v>320.0006933128539</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1042,12 +912,6 @@
       <c r="B22" t="n">
         <v>163</v>
       </c>
-      <c r="C22" t="n">
-        <v>-7.725630890688103</v>
-      </c>
-      <c r="D22" t="n">
-        <v>313.6571866889266</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1056,12 +920,6 @@
       <c r="B23" t="n">
         <v>165</v>
       </c>
-      <c r="C23" t="n">
-        <v>13.32435807602847</v>
-      </c>
-      <c r="D23" t="n">
-        <v>329.681511572149</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1070,12 +928,6 @@
       <c r="B24" t="n">
         <v>166</v>
       </c>
-      <c r="C24" t="n">
-        <v>11.49240745804185</v>
-      </c>
-      <c r="D24" t="n">
-        <v>326.3039817421561</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1084,12 +936,6 @@
       <c r="B25" t="n">
         <v>168</v>
       </c>
-      <c r="C25" t="n">
-        <v>11.53418722209557</v>
-      </c>
-      <c r="D25" t="n">
-        <v>332.0910570627722</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1098,12 +944,6 @@
       <c r="B26" t="n">
         <v>169</v>
       </c>
-      <c r="C26" t="n">
-        <v>20.2957998468843</v>
-      </c>
-      <c r="D26" t="n">
-        <v>334.6192612800819</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1112,12 +952,6 @@
       <c r="B27" t="n">
         <v>171</v>
       </c>
-      <c r="C27" t="n">
-        <v>22.74550342538376</v>
-      </c>
-      <c r="D27" t="n">
-        <v>328.4985503874146</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1126,12 +960,6 @@
       <c r="B28" t="n">
         <v>172</v>
       </c>
-      <c r="C28" t="n">
-        <v>6.37393411196109</v>
-      </c>
-      <c r="D28" t="n">
-        <v>325.0916070054402</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1139,12 +967,6 @@
       </c>
       <c r="B29" t="n">
         <v>174</v>
-      </c>
-      <c r="C29" t="n">
-        <v>26.79729575460284</v>
-      </c>
-      <c r="D29" t="n">
-        <v>333.5302081609477</v>
       </c>
     </row>
   </sheetData>
